--- a/excel/Employee_import_template.xlsx
+++ b/excel/Employee_import_template.xlsx
@@ -442,23 +442,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.08984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7265625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.453125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.90625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6328125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.54296875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.26953125" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.36328125" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7265625" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.36328125" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.453125" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.54296875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.90625" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.453125" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.54296875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.7265625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
